--- a/java-collections/Java Curriculum v1.0 July 7th 2017.xlsx
+++ b/java-collections/Java Curriculum v1.0 July 7th 2017.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20380" windowHeight="14660" tabRatio="632"/>
   </bookViews>
   <sheets>
     <sheet name="Technical Java Track Curriculum" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Technical Java Track Curriculum'!$A$2:$ALM$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,9 +140,6 @@
     <t>Garbage Collection (This could be optional, not req for beginner)</t>
   </si>
   <si>
-    <t>Streams and Writers</t>
-  </si>
-  <si>
     <t>JDBC Basics</t>
   </si>
   <si>
@@ -328,13 +330,16 @@
   </si>
   <si>
     <t>Topics identified for Theory only while rest will have hands-on &amp; code challenges</t>
+  </si>
+  <si>
+    <t>Streams and Writers ==&gt; IO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -383,6 +388,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -457,10 +468,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -468,27 +479,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,7 +509,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -537,6 +548,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -891,32 +905,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X80" sqref="X80"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7"/>
-    <col min="2" max="2" width="65.85546875" style="7"/>
-    <col min="3" max="3" width="25.140625" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="7"/>
+    <col min="2" max="2" width="86" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="54" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -925,63 +939,63 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="32.25" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17.25" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -990,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -999,411 +1013,411 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="23">
       <c r="A13" s="9"/>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+      <c r="B13" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="28">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="28">
       <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28">
       <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="9"/>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="9"/>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="9"/>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="42">
+      <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28">
       <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="9"/>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="28">
       <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="28">
       <c r="A41" s="9"/>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="9"/>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="9"/>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="9"/>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="33" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="9"/>
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="9"/>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="B50" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="9"/>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="9"/>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="9"/>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="9"/>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="9"/>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="28">
       <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="12"/>
       <c r="B63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="12"/>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="12"/>
       <c r="B65" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="13"/>
       <c r="B66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="328.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:3" ht="328.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A50:A61"/>
@@ -1421,5 +1435,10 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>